--- a/i_test/test_D4_analytical_dataset/D3_study_population.xlsx
+++ b/i_test/test_D4_analytical_dataset/D3_study_population.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>person_id</t>
   </si>
@@ -27,9 +27,6 @@
     <t>birth_date</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>death_date</t>
   </si>
   <si>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>bleeding_broad</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>ageband</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -372,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,30 +394,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>-30000</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -420,47 +432,47 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-10000</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>-20000</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>220</v>

--- a/i_test/test_D4_analytical_dataset/D3_study_population.xlsx
+++ b/i_test/test_D4_analytical_dataset/D3_study_population.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>person_id</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>number_previous_bleedings</t>
   </si>
 </sst>
 </file>
@@ -378,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +417,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -437,8 +443,11 @@
       <c r="G2">
         <v>120</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -457,8 +466,11 @@
       <c r="G3">
         <v>230</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -476,6 +488,9 @@
       </c>
       <c r="G4">
         <v>220</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
